--- a/Results/Categorization/lda2vec-partial.xlsx
+++ b/Results/Categorization/lda2vec-partial.xlsx
@@ -4027,322 +4027,322 @@
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
@@ -5976,7 +5976,7 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G8" t="s">
         <v>1465</v>
@@ -6002,7 +6002,7 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G9" t="s">
         <v>1466</v>
@@ -6028,7 +6028,7 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
         <v>1467</v>
@@ -6054,7 +6054,7 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G11" t="s">
         <v>1468</v>
@@ -6184,7 +6184,7 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
         <v>1471</v>
@@ -6210,7 +6210,7 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G17" t="s">
         <v>1472</v>
@@ -6262,7 +6262,7 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G19" t="s">
         <v>1474</v>
@@ -6314,7 +6314,7 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G21" t="s">
         <v>1475</v>
@@ -6418,7 +6418,7 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G25" t="s">
         <v>1476</v>
@@ -6496,7 +6496,7 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G28" t="s">
         <v>1477</v>
@@ -6574,7 +6574,7 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
         <v>1480</v>
@@ -6600,7 +6600,7 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G32" t="s">
         <v>1481</v>
@@ -6626,7 +6626,7 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G33" t="s">
         <v>1482</v>
@@ -6704,7 +6704,7 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G36" t="s">
         <v>1485</v>
@@ -6756,7 +6756,7 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G38" t="s">
         <v>1487</v>
@@ -6834,7 +6834,7 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
         <v>1489</v>
@@ -6860,7 +6860,7 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G42" t="s">
         <v>1490</v>
@@ -6886,7 +6886,7 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G43" t="s">
         <v>1491</v>
@@ -6912,7 +6912,7 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G44" t="s">
         <v>1492</v>
@@ -7068,7 +7068,7 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G50" t="s">
         <v>1495</v>
@@ -7094,7 +7094,7 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G51" t="s">
         <v>1496</v>
@@ -7172,7 +7172,7 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G54" t="s">
         <v>1499</v>
@@ -7250,7 +7250,7 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
         <v>1502</v>
@@ -7276,7 +7276,7 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
         <v>1503</v>
@@ -7302,7 +7302,7 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
         <v>1504</v>
@@ -7328,7 +7328,7 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G60" t="s">
         <v>1505</v>
@@ -7354,7 +7354,7 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G61" t="s">
         <v>1506</v>
@@ -7380,7 +7380,7 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G62" t="s">
         <v>1507</v>
@@ -7432,7 +7432,7 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G64" t="s">
         <v>1508</v>
@@ -7458,7 +7458,7 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G65" t="s">
         <v>1509</v>
@@ -7484,7 +7484,7 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
         <v>1510</v>
@@ -7510,7 +7510,7 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G67" t="s">
         <v>1474</v>
@@ -7848,7 +7848,7 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G80" t="s">
         <v>1519</v>
@@ -7900,7 +7900,7 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G82" t="s">
         <v>1521</v>
@@ -7926,7 +7926,7 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G83" t="s">
         <v>1522</v>
@@ -7952,7 +7952,7 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G84" t="s">
         <v>1523</v>
@@ -8082,7 +8082,7 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G89" t="s">
         <v>1526</v>
@@ -8108,7 +8108,7 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G90" t="s">
         <v>1527</v>
@@ -8134,7 +8134,7 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
         <v>1528</v>
@@ -8212,7 +8212,7 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G94" t="s">
         <v>1530</v>
@@ -8238,7 +8238,7 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G95" t="s">
         <v>1531</v>
@@ -8290,7 +8290,7 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G97" t="s">
         <v>1533</v>
@@ -8472,7 +8472,7 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G104" t="s">
         <v>1539</v>
@@ -8498,7 +8498,7 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G105" t="s">
         <v>1540</v>
@@ -8628,7 +8628,7 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G110" t="s">
         <v>1543</v>
@@ -8654,7 +8654,7 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G111" t="s">
         <v>1544</v>
@@ -8680,7 +8680,7 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
         <v>1469</v>
@@ -8706,7 +8706,7 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
         <v>1545</v>
@@ -8836,7 +8836,7 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G118" t="s">
         <v>1547</v>
@@ -8862,7 +8862,7 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G119" t="s">
         <v>1548</v>
@@ -8888,7 +8888,7 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G120" t="s">
         <v>1549</v>
@@ -8940,7 +8940,7 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G122" t="s">
         <v>1551</v>
@@ -9174,7 +9174,7 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G131" t="s">
         <v>1554</v>
@@ -9200,7 +9200,7 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G132" t="s">
         <v>1555</v>
@@ -9226,7 +9226,7 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G133" t="s">
         <v>1556</v>
@@ -9252,7 +9252,7 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1371</v>
+        <v>1339</v>
       </c>
       <c r="G134" t="s">
         <v>1557</v>
@@ -9330,7 +9330,7 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G137" t="s">
         <v>1560</v>
@@ -9434,7 +9434,7 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
@@ -9460,7 +9460,7 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G142" t="s">
         <v>1563</v>
@@ -9486,7 +9486,7 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G143" t="s">
         <v>1564</v>
@@ -9538,7 +9538,7 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G145" t="s">
         <v>1566</v>
@@ -9590,7 +9590,7 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1352</v>
+        <v>1384</v>
       </c>
       <c r="G147" t="s">
         <v>1567</v>
@@ -9616,7 +9616,7 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G148" t="s">
         <v>1568</v>
@@ -9694,7 +9694,7 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G151" t="s">
         <v>1570</v>
@@ -9772,7 +9772,7 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G154" t="s">
         <v>1572</v>
@@ -9798,7 +9798,7 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G155" t="s">
         <v>1573</v>
@@ -9876,7 +9876,7 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G158" t="s">
         <v>1575</v>
@@ -9902,7 +9902,7 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G159" t="s">
         <v>1576</v>
@@ -9928,7 +9928,7 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G160" t="s">
         <v>1577</v>
@@ -10032,7 +10032,7 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G164" t="s">
         <v>1579</v>
@@ -10058,7 +10058,7 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G165" t="s">
         <v>1580</v>
@@ -10110,7 +10110,7 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G167" t="s">
         <v>1581</v>
@@ -10162,7 +10162,7 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G169" t="s">
         <v>1582</v>
@@ -10188,7 +10188,7 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G170" t="s">
         <v>1583</v>
@@ -10214,7 +10214,7 @@
         <v>1277</v>
       </c>
       <c r="F171" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
         <v>1584</v>
@@ -10266,7 +10266,7 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G173" t="s">
         <v>1586</v>
@@ -10318,7 +10318,7 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G175" t="s">
         <v>1588</v>
@@ -10344,7 +10344,7 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1338</v>
+        <v>1374</v>
       </c>
       <c r="G176" t="s">
         <v>1589</v>
@@ -10396,7 +10396,7 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G178" t="s">
         <v>1591</v>
@@ -10448,7 +10448,7 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G180" t="s">
         <v>1592</v>
@@ -10500,7 +10500,7 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G182" t="s">
         <v>1593</v>
@@ -10526,7 +10526,7 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G183" t="s">
         <v>1594</v>
@@ -10552,7 +10552,7 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G184" t="s">
         <v>1595</v>
@@ -10578,7 +10578,7 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G185" t="s">
         <v>1596</v>
@@ -10604,7 +10604,7 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G186" t="s">
         <v>1597</v>
@@ -10708,7 +10708,7 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G190" t="s">
         <v>1475</v>
@@ -10812,7 +10812,7 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G194" t="s">
         <v>1600</v>
@@ -10916,7 +10916,7 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G198" t="s">
         <v>1603</v>
@@ -11150,7 +11150,7 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G207" t="s">
         <v>1609</v>
@@ -11202,7 +11202,7 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G209" t="s">
         <v>1610</v>
@@ -11254,7 +11254,7 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G211" t="s">
         <v>1612</v>
@@ -11384,7 +11384,7 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G216" t="s">
         <v>1615</v>
@@ -11410,7 +11410,7 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="G217" t="s">
         <v>1616</v>
@@ -11462,7 +11462,7 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1352</v>
+        <v>1384</v>
       </c>
       <c r="G219" t="s">
         <v>1617</v>
@@ -11488,7 +11488,7 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G220" t="s">
         <v>1618</v>
@@ -11514,7 +11514,7 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G221" t="s">
         <v>1619</v>
@@ -11566,7 +11566,7 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G223" t="s">
         <v>1620</v>
@@ -11618,7 +11618,7 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G225" t="s">
         <v>1621</v>
@@ -11644,7 +11644,7 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G226" t="s">
         <v>1622</v>
@@ -11670,7 +11670,7 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G227" t="s">
         <v>1623</v>
@@ -11696,7 +11696,7 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G228" t="s">
         <v>1624</v>
@@ -11826,7 +11826,7 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G233" t="s">
         <v>1626</v>
@@ -11982,7 +11982,7 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G239" t="s">
         <v>1630</v>
@@ -12008,7 +12008,7 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G240" t="s">
         <v>1631</v>
@@ -12034,7 +12034,7 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="G241" t="s">
         <v>1632</v>
@@ -12190,7 +12190,7 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1409</v>
+        <v>1385</v>
       </c>
       <c r="G247" t="s">
         <v>1568</v>
@@ -12216,7 +12216,7 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G248" t="s">
         <v>1635</v>
@@ -12242,7 +12242,7 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1345</v>
+        <v>1367</v>
       </c>
       <c r="G249" t="s">
         <v>1636</v>
@@ -12268,7 +12268,7 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G250" t="s">
         <v>1637</v>
@@ -12372,7 +12372,7 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G254" t="s">
         <v>1638</v>
@@ -12424,7 +12424,7 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1413</v>
+        <v>1342</v>
       </c>
       <c r="G256" t="s">
         <v>1640</v>
@@ -12450,7 +12450,7 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G257" t="s">
         <v>1641</v>
@@ -12476,7 +12476,7 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G258" t="s">
         <v>1642</v>
@@ -12580,7 +12580,7 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G262" t="s">
         <v>1465</v>
@@ -12684,7 +12684,7 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G266" t="s">
         <v>1644</v>
@@ -12710,7 +12710,7 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
@@ -12736,7 +12736,7 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="G268" t="s">
         <v>1645</v>
@@ -12762,7 +12762,7 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1381</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
         <v>1646</v>
@@ -12788,7 +12788,7 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G270" t="s">
         <v>1647</v>
@@ -12814,7 +12814,7 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G271" t="s">
         <v>1648</v>
@@ -12840,7 +12840,7 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G272" t="s">
         <v>1649</v>
@@ -12866,7 +12866,7 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G273" t="s">
         <v>1650</v>
@@ -12918,7 +12918,7 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G275" t="s">
         <v>1652</v>
@@ -12944,7 +12944,7 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G276" t="s">
         <v>1653</v>
@@ -12996,7 +12996,7 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G278" t="s">
         <v>1654</v>
@@ -13048,7 +13048,7 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G280" t="s">
         <v>1656</v>
@@ -13074,7 +13074,7 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G281" t="s">
         <v>1657</v>
@@ -13126,7 +13126,7 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G283" t="s">
         <v>1658</v>
@@ -13152,7 +13152,7 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="G284" t="s">
         <v>1659</v>
@@ -13230,7 +13230,7 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G287" t="s">
         <v>1660</v>
@@ -13308,7 +13308,7 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G290" t="s">
         <v>1661</v>
@@ -13334,7 +13334,7 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="G291" t="s">
         <v>1662</v>
@@ -13360,7 +13360,7 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G292" t="s">
         <v>1663</v>
@@ -13490,7 +13490,7 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G297" t="s">
         <v>1667</v>
@@ -13542,7 +13542,7 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G299" t="s">
         <v>1669</v>
@@ -13620,7 +13620,7 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G302" t="s">
         <v>1554</v>
@@ -13672,7 +13672,7 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G304" t="s">
         <v>1670</v>
@@ -13698,7 +13698,7 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G305" t="s">
         <v>1671</v>
@@ -13724,7 +13724,7 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G306" t="s">
         <v>1672</v>
@@ -13750,7 +13750,7 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="G307" t="s">
         <v>1673</v>
@@ -13776,7 +13776,7 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G308" t="s">
         <v>1674</v>
@@ -13802,7 +13802,7 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G309" t="s">
         <v>1652</v>
@@ -13880,7 +13880,7 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G312" t="s">
         <v>1675</v>
@@ -13932,7 +13932,7 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G314" t="s">
         <v>1537</v>
@@ -14114,7 +14114,7 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G321" t="s">
         <v>1677</v>
@@ -14140,7 +14140,7 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G322" t="s">
         <v>1678</v>
@@ -14166,7 +14166,7 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G323" t="s">
         <v>1554</v>
@@ -14296,7 +14296,7 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1426</v>
+        <v>1351</v>
       </c>
       <c r="G328" t="s">
         <v>1681</v>
@@ -14322,7 +14322,7 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G329" t="s">
         <v>1682</v>
@@ -14348,7 +14348,7 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G330" t="s">
         <v>1683</v>
@@ -14426,7 +14426,7 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G333" t="s">
         <v>1675</v>
@@ -14452,7 +14452,7 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G334" t="s">
         <v>1684</v>
@@ -14530,7 +14530,7 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G337" t="s">
         <v>1686</v>
@@ -14582,7 +14582,7 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G339" t="s">
         <v>1687</v>
@@ -14634,7 +14634,7 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G341" t="s">
         <v>1688</v>
@@ -14660,7 +14660,7 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G342" t="s">
         <v>1689</v>
@@ -14686,7 +14686,7 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G343" t="s">
         <v>1690</v>
@@ -14712,7 +14712,7 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G344" t="s">
         <v>1691</v>
@@ -14738,7 +14738,7 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G345" t="s">
         <v>1692</v>
@@ -14790,7 +14790,7 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G347" t="s">
         <v>1694</v>
@@ -14816,7 +14816,7 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G348" t="s">
         <v>1475</v>
@@ -14842,7 +14842,7 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G349" t="s">
         <v>1695</v>
@@ -14868,7 +14868,7 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G350" t="s">
         <v>1696</v>
@@ -14894,7 +14894,7 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G351" t="s">
         <v>1608</v>
@@ -14920,7 +14920,7 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G352" t="s">
         <v>1697</v>
@@ -14946,7 +14946,7 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G353" t="s">
         <v>1698</v>
@@ -14972,7 +14972,7 @@
         <v>1275</v>
       </c>
       <c r="F354" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G354" t="s">
         <v>1652</v>
@@ -15024,7 +15024,7 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G356" t="s">
         <v>1475</v>
@@ -15076,7 +15076,7 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G358" t="s">
         <v>1700</v>
@@ -15128,7 +15128,7 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="G360" t="s">
         <v>1701</v>
@@ -15154,7 +15154,7 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G361" t="s">
         <v>1702</v>
@@ -15232,7 +15232,7 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G364" t="s">
         <v>1519</v>
@@ -15284,7 +15284,7 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G366" t="s">
         <v>1703</v>
@@ -15310,7 +15310,7 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1439</v>
+        <v>1415</v>
       </c>
       <c r="G367" t="s">
         <v>1704</v>
@@ -15336,7 +15336,7 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G368" t="s">
         <v>1705</v>
@@ -15362,7 +15362,7 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G369" t="s">
         <v>1676</v>
@@ -15466,7 +15466,7 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1374</v>
       </c>
       <c r="G373" t="s">
         <v>1463</v>
@@ -15492,7 +15492,7 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1353</v>
+        <v>1439</v>
       </c>
       <c r="G374" t="s">
         <v>1707</v>
@@ -15518,7 +15518,7 @@
         <v>1278</v>
       </c>
       <c r="F375" t="s">
-        <v>1347</v>
+        <v>1440</v>
       </c>
       <c r="G375" t="s">
         <v>1708</v>
@@ -15668,7 +15668,7 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G381" t="s">
         <v>1712</v>
@@ -15876,7 +15876,7 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G389" t="s">
         <v>1683</v>
@@ -16084,7 +16084,7 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1356</v>
+        <v>1383</v>
       </c>
       <c r="G397" t="s">
         <v>1722</v>
@@ -16110,7 +16110,7 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G398" t="s">
         <v>1723</v>
@@ -16162,7 +16162,7 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1431</v>
+        <v>1388</v>
       </c>
       <c r="G400" t="s">
         <v>1725</v>
@@ -16240,7 +16240,7 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G403" t="s">
         <v>1728</v>
@@ -16266,7 +16266,7 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1352</v>
+        <v>1384</v>
       </c>
       <c r="G404" t="s">
         <v>1729</v>
@@ -16344,7 +16344,7 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G407" t="s">
         <v>1730</v>
@@ -16500,7 +16500,7 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
@@ -16578,7 +16578,7 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
         <v>1486</v>
@@ -16604,7 +16604,7 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G417" t="s">
         <v>1683</v>
@@ -16656,7 +16656,7 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G419" t="s">
         <v>1736</v>
@@ -16760,7 +16760,7 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G423" t="s">
         <v>1683</v>
@@ -16786,7 +16786,7 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1347</v>
+        <v>1440</v>
       </c>
       <c r="G424" t="s">
         <v>1738</v>
@@ -16812,7 +16812,7 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1416</v>
+        <v>1388</v>
       </c>
       <c r="G425" t="s">
         <v>1739</v>
@@ -16838,7 +16838,7 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G426" t="s">
         <v>1683</v>
@@ -16916,7 +16916,7 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G429" t="s">
         <v>1740</v>
@@ -17020,7 +17020,7 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="G433" t="s">
         <v>1742</v>
@@ -17046,7 +17046,7 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
         <v>1743</v>
@@ -17228,7 +17228,7 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="G441" t="s">
         <v>1742</v>
@@ -17358,7 +17358,7 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G446" t="s">
         <v>1751</v>
@@ -17384,7 +17384,7 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1347</v>
+        <v>1440</v>
       </c>
       <c r="G447" t="s">
         <v>1752</v>
@@ -17410,7 +17410,7 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G448" t="s">
         <v>1753</v>
@@ -17462,7 +17462,7 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
         <v>1519</v>
@@ -17514,7 +17514,7 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G452" t="s">
         <v>1756</v>
@@ -17540,7 +17540,7 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G453" t="s">
         <v>1757</v>
@@ -17618,7 +17618,7 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G456" t="s">
         <v>1759</v>
@@ -17748,7 +17748,7 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G461" t="s">
         <v>1763</v>
@@ -17800,7 +17800,7 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G463" t="s">
         <v>1764</v>
